--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -7007,7 +7007,7 @@
         <v>47.60424159323978</v>
       </c>
       <c r="D391">
-        <v>57.29118282486505</v>
+        <v>57.29118282486506</v>
       </c>
       <c r="E391">
         <v>89.47255882824973</v>
